--- a/Project Time Line.xlsx
+++ b/Project Time Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Our CDAC Project\FraudFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C483189-913E-445E-93D2-0A9E3FDA13F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4E2CB-D4C6-496C-8DCA-9E014E1E90F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="12900" xr2:uid="{D3F789FF-2517-46EF-A14F-AD02A93BAE38}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23880" windowHeight="12810" xr2:uid="{D3F789FF-2517-46EF-A14F-AD02A93BAE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Step 1</t>
   </si>
@@ -60,13 +60,19 @@
   </si>
   <si>
     <t>op1 ignore 'Age' and consider "age of policyholder'</t>
+  </si>
+  <si>
+    <t>Day 3-5: Data Cleaning</t>
+  </si>
+  <si>
+    <t>1. Check Missing Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +83,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -103,9 +117,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE621C1-AC39-4AF0-AFDF-7D2DF50651F8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +509,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Time Line.xlsx
+++ b/Project Time Line.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Our CDAC Project\FraudFinder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS 360\FraudFinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA4E2CB-D4C6-496C-8DCA-9E014E1E90F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F02BDDE-4856-49DD-9894-A31D3BAAAB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23880" windowHeight="12810" xr2:uid="{D3F789FF-2517-46EF-A14F-AD02A93BAE38}"/>
+    <workbookView xWindow="5865" yWindow="2205" windowWidth="18000" windowHeight="9360" xr2:uid="{D3F789FF-2517-46EF-A14F-AD02A93BAE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,16 +123,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -466,14 +473,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,41 +491,41 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
